--- a/admin/Database_Batch_2014-2018.xlsx
+++ b/admin/Database_Batch_2014-2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="80">
   <si>
     <t>SID</t>
   </si>
@@ -157,10 +157,10 @@
     <t>CBSE</t>
   </si>
   <si>
-    <t>No</t>
+    <t>St. John's</t>
   </si>
   <si>
-    <t>sahismarty@gmail.com</t>
+    <t>No</t>
   </si>
   <si>
     <t>Mr. Rakesh Sharma</t>
@@ -196,9 +196,6 @@
     <t>Mary Lord</t>
   </si>
   <si>
-    <t>preeti1992@gmail.com</t>
-  </si>
-  <si>
     <t>Mr. Shankar Tripathi</t>
   </si>
   <si>
@@ -208,7 +205,70 @@
     <t>Aerospace Engineering</t>
   </si>
   <si>
-    <t>St. Johns</t>
+    <t>Raghav Kukreja</t>
+  </si>
+  <si>
+    <t>123, Sushan City</t>
+  </si>
+  <si>
+    <t>Panipat</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>25/04/1994</t>
+  </si>
+  <si>
+    <t>Computer Science and Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDVM's </t>
+  </si>
+  <si>
+    <t>SDVIM's</t>
+  </si>
+  <si>
+    <t>raghavkuk25@gmail.com</t>
+  </si>
+  <si>
+    <t>Mr. Gagan Kukreja</t>
+  </si>
+  <si>
+    <t>Mrs. Mamta Kukreja</t>
+  </si>
+  <si>
+    <t>Mrs. Anita Chadha</t>
+  </si>
+  <si>
+    <t>Mr. Arun Chadha</t>
+  </si>
+  <si>
+    <t>kashish3032@gmail.com</t>
+  </si>
+  <si>
+    <t>Swami Sant dass</t>
+  </si>
+  <si>
+    <t>Swani Sant Dass</t>
+  </si>
+  <si>
+    <t>22/02/1994</t>
+  </si>
+  <si>
+    <t>Jalandhar</t>
+  </si>
+  <si>
+    <t>E.C. 72, Kazi Mohalla</t>
+  </si>
+  <si>
+    <t>Kashish Chadha</t>
+  </si>
+  <si>
+    <t>hackathon2015.pec@gmail.com</t>
+  </si>
+  <si>
+    <t>raghavkuk25@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -827,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1067,7 @@
         <v>40</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="1">
         <v>145811</v>
@@ -1022,7 +1082,7 @@
         <v>2010</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="2">
         <v>83</v>
@@ -1034,7 +1094,7 @@
         <v>2012</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="U2" s="2">
         <v>6</v>
@@ -1061,16 +1121,16 @@
         <v>55</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE2" s="1">
         <v>897721123</v>
       </c>
       <c r="AF2" s="17" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>44</v>
@@ -1083,9 +1143,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1122,9 +1180,7 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1161,9 +1217,7 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1200,9 +1254,7 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1239,9 +1291,7 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1278,9 +1328,7 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1317,9 +1365,7 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1356,9 +1402,7 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1395,9 +1439,7 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
+      <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1434,9 +1476,7 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1473,9 +1513,7 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
+      <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1512,9 +1550,7 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
+      <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1551,9 +1587,7 @@
       <c r="AI14" s="1"/>
     </row>
     <row r="15" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1590,9 +1624,7 @@
       <c r="AI15" s="1"/>
     </row>
     <row r="16" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
+      <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1629,9 +1661,7 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
+      <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1668,9 +1698,7 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
+      <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1707,9 +1735,7 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1746,9 +1772,7 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1785,9 +1809,7 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1824,9 +1846,7 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
+      <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1863,9 +1883,7 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1902,9 +1920,7 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
+      <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1941,9 +1957,7 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1980,9 +1994,7 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
+      <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2019,9 +2031,7 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
+      <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2058,9 +2068,7 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
+      <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2097,9 +2105,7 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
+      <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2136,9 +2142,7 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
+      <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2175,9 +2179,7 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
+      <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2214,9 +2216,7 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
+      <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2253,9 +2253,7 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
+      <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2292,9 +2290,7 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
+      <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2331,9 +2327,7 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
+      <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2370,9 +2364,7 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
+      <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2409,9 +2401,7 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
+      <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2448,9 +2438,7 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
+      <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2487,9 +2475,7 @@
       <c r="AI38" s="1"/>
     </row>
     <row r="39" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
+      <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2526,9 +2512,7 @@
       <c r="AI39" s="1"/>
     </row>
     <row r="40" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
+      <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2565,9 +2549,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
+      <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2604,9 +2586,7 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
+      <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2643,9 +2623,7 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
+      <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2682,9 +2660,7 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
+      <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2721,9 +2697,7 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
+      <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2760,9 +2734,7 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
+      <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2799,9 +2771,7 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
+      <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2838,9 +2808,7 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
+      <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2877,9 +2845,7 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
+      <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2916,9 +2882,7 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
+      <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2955,9 +2919,7 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
+      <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2994,9 +2956,7 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
+      <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3033,9 +2993,7 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
+      <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3072,9 +3030,7 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
+      <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3111,9 +3067,7 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
+      <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3150,9 +3104,7 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
+      <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3189,9 +3141,7 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
+      <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3228,9 +3178,7 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
+      <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3267,9 +3215,7 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
+      <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3306,9 +3252,7 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
+      <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3345,9 +3289,7 @@
       <c r="AI60" s="1"/>
     </row>
     <row r="61" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
+      <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3384,9 +3326,7 @@
       <c r="AI61" s="1"/>
     </row>
     <row r="62" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>61</v>
-      </c>
+      <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
@@ -3394,9 +3334,7 @@
       <c r="AB62" s="13"/>
     </row>
     <row r="63" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>62</v>
-      </c>
+      <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
@@ -3404,9 +3342,7 @@
       <c r="AB63" s="13"/>
     </row>
     <row r="64" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>63</v>
-      </c>
+      <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
@@ -3414,9 +3350,7 @@
       <c r="AB64" s="13"/>
     </row>
     <row r="65" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>64</v>
-      </c>
+      <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
@@ -3424,9 +3358,7 @@
       <c r="AB65" s="13"/>
     </row>
     <row r="66" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>65</v>
-      </c>
+      <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
@@ -3434,9 +3366,7 @@
       <c r="AB66" s="13"/>
     </row>
     <row r="67" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>66</v>
-      </c>
+      <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
@@ -3444,9 +3374,7 @@
       <c r="AB67" s="13"/>
     </row>
     <row r="68" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>67</v>
-      </c>
+      <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
@@ -3454,9 +3382,7 @@
       <c r="AB68" s="13"/>
     </row>
     <row r="69" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>68</v>
-      </c>
+      <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
@@ -3464,9 +3390,7 @@
       <c r="AB69" s="13"/>
     </row>
     <row r="70" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>69</v>
-      </c>
+      <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
@@ -3474,9 +3398,7 @@
       <c r="AB70" s="13"/>
     </row>
     <row r="71" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>70</v>
-      </c>
+      <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
@@ -3484,9 +3406,7 @@
       <c r="AB71" s="13"/>
     </row>
     <row r="72" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>71</v>
-      </c>
+      <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
@@ -3494,9 +3414,7 @@
       <c r="AB72" s="13"/>
     </row>
     <row r="73" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
-        <v>72</v>
-      </c>
+      <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
@@ -3504,9 +3422,7 @@
       <c r="AB73" s="13"/>
     </row>
     <row r="74" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>73</v>
-      </c>
+      <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
@@ -3514,9 +3430,7 @@
       <c r="AB74" s="13"/>
     </row>
     <row r="75" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
-        <v>74</v>
-      </c>
+      <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
@@ -3524,9 +3438,7 @@
       <c r="AB75" s="13"/>
     </row>
     <row r="76" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
-        <v>75</v>
-      </c>
+      <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
@@ -3534,9 +3446,7 @@
       <c r="AB76" s="13"/>
     </row>
     <row r="77" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>76</v>
-      </c>
+      <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
@@ -3544,9 +3454,7 @@
       <c r="AB77" s="13"/>
     </row>
     <row r="78" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>77</v>
-      </c>
+      <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
@@ -3554,9 +3462,7 @@
       <c r="AB78" s="13"/>
     </row>
     <row r="79" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>78</v>
-      </c>
+      <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
@@ -3564,9 +3470,7 @@
       <c r="AB79" s="13"/>
     </row>
     <row r="80" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>79</v>
-      </c>
+      <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
@@ -3574,9 +3478,7 @@
       <c r="AB80" s="13"/>
     </row>
     <row r="81" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>80</v>
-      </c>
+      <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
@@ -3584,9 +3486,7 @@
       <c r="AB81" s="13"/>
     </row>
     <row r="82" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
-        <v>81</v>
-      </c>
+      <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
@@ -3594,9 +3494,7 @@
       <c r="AB82" s="13"/>
     </row>
     <row r="83" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>82</v>
-      </c>
+      <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
@@ -3604,9 +3502,7 @@
       <c r="AB83" s="13"/>
     </row>
     <row r="84" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>83</v>
-      </c>
+      <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
@@ -3614,9 +3510,7 @@
       <c r="AB84" s="13"/>
     </row>
     <row r="85" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
-        <v>84</v>
-      </c>
+      <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
@@ -3624,9 +3518,7 @@
       <c r="AB85" s="13"/>
     </row>
     <row r="86" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
-        <v>85</v>
-      </c>
+      <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
@@ -3634,9 +3526,7 @@
       <c r="AB86" s="13"/>
     </row>
     <row r="87" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>86</v>
-      </c>
+      <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
@@ -3644,9 +3534,7 @@
       <c r="AB87" s="13"/>
     </row>
     <row r="88" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>87</v>
-      </c>
+      <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
@@ -3654,9 +3542,7 @@
       <c r="AB88" s="13"/>
     </row>
     <row r="89" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>88</v>
-      </c>
+      <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
@@ -3664,9 +3550,7 @@
       <c r="AB89" s="13"/>
     </row>
     <row r="90" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>89</v>
-      </c>
+      <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
@@ -3674,9 +3558,7 @@
       <c r="AB90" s="13"/>
     </row>
     <row r="91" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>90</v>
-      </c>
+      <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
@@ -3684,9 +3566,7 @@
       <c r="AB91" s="13"/>
     </row>
     <row r="92" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>91</v>
-      </c>
+      <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
@@ -3694,9 +3574,7 @@
       <c r="AB92" s="13"/>
     </row>
     <row r="93" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
-        <v>92</v>
-      </c>
+      <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
@@ -3704,9 +3582,7 @@
       <c r="AB93" s="13"/>
     </row>
     <row r="94" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
-        <v>93</v>
-      </c>
+      <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
@@ -3714,9 +3590,7 @@
       <c r="AB94" s="13"/>
     </row>
     <row r="95" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
-        <v>94</v>
-      </c>
+      <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
@@ -3724,9 +3598,7 @@
       <c r="AB95" s="13"/>
     </row>
     <row r="96" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
-        <v>95</v>
-      </c>
+      <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
@@ -3734,9 +3606,7 @@
       <c r="AB96" s="13"/>
     </row>
     <row r="97" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
-        <v>96</v>
-      </c>
+      <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
@@ -3744,9 +3614,7 @@
       <c r="AB97" s="13"/>
     </row>
     <row r="98" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
-        <v>97</v>
-      </c>
+      <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
@@ -3754,9 +3622,7 @@
       <c r="AB98" s="13"/>
     </row>
     <row r="99" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
-        <v>98</v>
-      </c>
+      <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
@@ -3764,9 +3630,7 @@
       <c r="AB99" s="13"/>
     </row>
     <row r="100" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
-        <v>99</v>
-      </c>
+      <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
@@ -3774,9 +3638,7 @@
       <c r="AB100" s="13"/>
     </row>
     <row r="101" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
-        <v>100</v>
-      </c>
+      <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
@@ -3796,8 +3658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI101"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="AB1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4030,31 +3892,29 @@
         <v>65</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE2" s="1">
         <v>7899128821</v>
       </c>
       <c r="AF2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="AI2" s="1">
         <v>889919993</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4091,9 +3951,7 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4130,9 +3988,7 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4169,9 +4025,7 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4208,9 +4062,7 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4247,9 +4099,7 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4286,9 +4136,7 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4325,9 +4173,7 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4364,9 +4210,7 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
+      <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4403,9 +4247,7 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4442,9 +4284,7 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
+      <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4481,9 +4321,7 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
+      <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4520,9 +4358,7 @@
       <c r="AI14" s="1"/>
     </row>
     <row r="15" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4559,9 +4395,7 @@
       <c r="AI15" s="1"/>
     </row>
     <row r="16" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
+      <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4598,9 +4432,7 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
+      <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4637,9 +4469,7 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
+      <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4676,9 +4506,7 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4715,9 +4543,7 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4754,9 +4580,7 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4793,9 +4617,7 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
+      <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4832,9 +4654,7 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -4871,9 +4691,7 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
+      <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4910,9 +4728,7 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4949,9 +4765,7 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
+      <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4988,9 +4802,7 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
+      <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5027,9 +4839,7 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
+      <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -5066,9 +4876,7 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
+      <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5105,9 +4913,7 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
+      <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5144,9 +4950,7 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
+      <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5183,9 +4987,7 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
+      <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5222,9 +5024,7 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
+      <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5261,9 +5061,7 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
+      <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5300,9 +5098,7 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
+      <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5339,9 +5135,7 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
+      <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5378,9 +5172,7 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
+      <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5417,9 +5209,7 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
+      <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5456,9 +5246,7 @@
       <c r="AI38" s="1"/>
     </row>
     <row r="39" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
+      <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5495,9 +5283,7 @@
       <c r="AI39" s="1"/>
     </row>
     <row r="40" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
+      <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5534,9 +5320,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
+      <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5573,9 +5357,7 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
+      <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5612,9 +5394,7 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
+      <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5651,9 +5431,7 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
+      <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5690,9 +5468,7 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
+      <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5729,9 +5505,7 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
+      <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5768,9 +5542,7 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
+      <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5807,9 +5579,7 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
+      <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5846,9 +5616,7 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
+      <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5885,9 +5653,7 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
+      <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5924,9 +5690,7 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
+      <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -5963,9 +5727,7 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
+      <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6002,9 +5764,7 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
+      <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6041,9 +5801,7 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
+      <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6080,9 +5838,7 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
+      <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6119,9 +5875,7 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
+      <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6158,9 +5912,7 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
+      <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6197,9 +5949,7 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
+      <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6236,9 +5986,7 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
+      <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6275,9 +6023,7 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
+      <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6314,9 +6060,7 @@
       <c r="AI60" s="1"/>
     </row>
     <row r="61" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
+      <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6353,9 +6097,7 @@
       <c r="AI61" s="1"/>
     </row>
     <row r="62" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>61</v>
-      </c>
+      <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
@@ -6363,9 +6105,7 @@
       <c r="AB62" s="13"/>
     </row>
     <row r="63" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>62</v>
-      </c>
+      <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
@@ -6373,9 +6113,7 @@
       <c r="AB63" s="13"/>
     </row>
     <row r="64" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>63</v>
-      </c>
+      <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
@@ -6383,9 +6121,7 @@
       <c r="AB64" s="13"/>
     </row>
     <row r="65" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>64</v>
-      </c>
+      <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
@@ -6393,9 +6129,7 @@
       <c r="AB65" s="13"/>
     </row>
     <row r="66" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>65</v>
-      </c>
+      <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
@@ -6403,9 +6137,7 @@
       <c r="AB66" s="13"/>
     </row>
     <row r="67" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>66</v>
-      </c>
+      <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
@@ -6413,9 +6145,7 @@
       <c r="AB67" s="13"/>
     </row>
     <row r="68" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>67</v>
-      </c>
+      <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
@@ -6423,9 +6153,7 @@
       <c r="AB68" s="13"/>
     </row>
     <row r="69" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>68</v>
-      </c>
+      <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
@@ -6433,9 +6161,7 @@
       <c r="AB69" s="13"/>
     </row>
     <row r="70" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>69</v>
-      </c>
+      <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
@@ -6443,9 +6169,7 @@
       <c r="AB70" s="13"/>
     </row>
     <row r="71" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>70</v>
-      </c>
+      <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
@@ -6453,9 +6177,7 @@
       <c r="AB71" s="13"/>
     </row>
     <row r="72" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>71</v>
-      </c>
+      <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
@@ -6463,9 +6185,7 @@
       <c r="AB72" s="13"/>
     </row>
     <row r="73" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
-        <v>72</v>
-      </c>
+      <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
@@ -6473,9 +6193,7 @@
       <c r="AB73" s="13"/>
     </row>
     <row r="74" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>73</v>
-      </c>
+      <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
@@ -6483,9 +6201,7 @@
       <c r="AB74" s="13"/>
     </row>
     <row r="75" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
-        <v>74</v>
-      </c>
+      <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
@@ -6493,9 +6209,7 @@
       <c r="AB75" s="13"/>
     </row>
     <row r="76" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
-        <v>75</v>
-      </c>
+      <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
@@ -6503,9 +6217,7 @@
       <c r="AB76" s="13"/>
     </row>
     <row r="77" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>76</v>
-      </c>
+      <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
@@ -6513,9 +6225,7 @@
       <c r="AB77" s="13"/>
     </row>
     <row r="78" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>77</v>
-      </c>
+      <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
@@ -6523,9 +6233,7 @@
       <c r="AB78" s="13"/>
     </row>
     <row r="79" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>78</v>
-      </c>
+      <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
@@ -6533,9 +6241,7 @@
       <c r="AB79" s="13"/>
     </row>
     <row r="80" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>79</v>
-      </c>
+      <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
@@ -6543,9 +6249,7 @@
       <c r="AB80" s="13"/>
     </row>
     <row r="81" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>80</v>
-      </c>
+      <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
@@ -6553,9 +6257,7 @@
       <c r="AB81" s="13"/>
     </row>
     <row r="82" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
-        <v>81</v>
-      </c>
+      <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
@@ -6563,9 +6265,7 @@
       <c r="AB82" s="13"/>
     </row>
     <row r="83" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>82</v>
-      </c>
+      <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
@@ -6573,9 +6273,7 @@
       <c r="AB83" s="13"/>
     </row>
     <row r="84" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>83</v>
-      </c>
+      <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
@@ -6583,9 +6281,7 @@
       <c r="AB84" s="13"/>
     </row>
     <row r="85" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
-        <v>84</v>
-      </c>
+      <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
@@ -6593,9 +6289,7 @@
       <c r="AB85" s="13"/>
     </row>
     <row r="86" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
-        <v>85</v>
-      </c>
+      <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
@@ -6603,9 +6297,7 @@
       <c r="AB86" s="13"/>
     </row>
     <row r="87" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>86</v>
-      </c>
+      <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
@@ -6613,9 +6305,7 @@
       <c r="AB87" s="13"/>
     </row>
     <row r="88" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>87</v>
-      </c>
+      <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
@@ -6623,9 +6313,7 @@
       <c r="AB88" s="13"/>
     </row>
     <row r="89" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>88</v>
-      </c>
+      <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
@@ -6633,9 +6321,7 @@
       <c r="AB89" s="13"/>
     </row>
     <row r="90" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>89</v>
-      </c>
+      <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
@@ -6643,9 +6329,7 @@
       <c r="AB90" s="13"/>
     </row>
     <row r="91" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>90</v>
-      </c>
+      <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
@@ -6653,9 +6337,7 @@
       <c r="AB91" s="13"/>
     </row>
     <row r="92" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>91</v>
-      </c>
+      <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
@@ -6663,9 +6345,7 @@
       <c r="AB92" s="13"/>
     </row>
     <row r="93" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
-        <v>92</v>
-      </c>
+      <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
@@ -6673,9 +6353,7 @@
       <c r="AB93" s="13"/>
     </row>
     <row r="94" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
-        <v>93</v>
-      </c>
+      <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
@@ -6683,9 +6361,7 @@
       <c r="AB94" s="13"/>
     </row>
     <row r="95" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
-        <v>94</v>
-      </c>
+      <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
@@ -6693,9 +6369,7 @@
       <c r="AB95" s="13"/>
     </row>
     <row r="96" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
-        <v>95</v>
-      </c>
+      <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
@@ -6703,9 +6377,7 @@
       <c r="AB96" s="13"/>
     </row>
     <row r="97" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
-        <v>96</v>
-      </c>
+      <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
@@ -6713,9 +6385,7 @@
       <c r="AB97" s="13"/>
     </row>
     <row r="98" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
-        <v>97</v>
-      </c>
+      <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
@@ -6723,9 +6393,7 @@
       <c r="AB98" s="13"/>
     </row>
     <row r="99" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
-        <v>98</v>
-      </c>
+      <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
@@ -6733,9 +6401,7 @@
       <c r="AB99" s="13"/>
     </row>
     <row r="100" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
-        <v>99</v>
-      </c>
+      <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
@@ -6743,9 +6409,7 @@
       <c r="AB100" s="13"/>
     </row>
     <row r="101" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
-        <v>100</v>
-      </c>
+      <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
@@ -6765,14 +6429,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C30" sqref="C26:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="15" customWidth="1"/>
     <col min="3" max="3" width="30.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="10" style="6" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" style="6" customWidth="1"/>
@@ -6781,7 +6445,7 @@
     <col min="8" max="8" width="17.140625" style="6" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="6" customWidth="1"/>
     <col min="10" max="10" width="20" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10" style="6" customWidth="1"/>
+    <col min="11" max="11" width="38.7109375" style="6" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="6" customWidth="1"/>
     <col min="13" max="13" width="24.5703125" style="6" customWidth="1"/>
     <col min="14" max="14" width="21" style="6" customWidth="1"/>
@@ -6917,84 +6581,218 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
+      <c r="B2" s="7">
+        <v>12103024</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="8">
+        <v>150001</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3264</v>
+      </c>
+      <c r="M2" s="2">
+        <v>86</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2010</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>92</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2012</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="2">
+        <v>7</v>
+      </c>
+      <c r="V2" s="2">
+        <v>7</v>
+      </c>
+      <c r="W2" s="2">
+        <v>7</v>
+      </c>
+      <c r="X2" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>8059080045</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>9088871717</v>
+      </c>
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
+      <c r="B3" s="7">
+        <v>12103032</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="11">
+        <v>144001</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3176</v>
+      </c>
+      <c r="M3" s="2">
+        <v>95</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>96.2</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2012</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="2">
+        <v>9.66</v>
+      </c>
+      <c r="V3" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="W3" s="2">
+        <v>10</v>
+      </c>
+      <c r="X3" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>9.11</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>9.74</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>91</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>9781942330</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>9216905221</v>
+      </c>
     </row>
     <row r="4" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7031,9 +6829,7 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -7070,9 +6866,7 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7109,9 +6903,7 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -7148,9 +6940,7 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -7187,9 +6977,7 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -7226,9 +7014,7 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7265,9 +7051,7 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
+      <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -7304,9 +7088,7 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -7343,9 +7125,7 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
+      <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -7382,9 +7162,7 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
+      <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -7421,9 +7199,7 @@
       <c r="AI14" s="1"/>
     </row>
     <row r="15" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -7460,9 +7236,7 @@
       <c r="AI15" s="1"/>
     </row>
     <row r="16" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
+      <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -7499,9 +7273,7 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
+      <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -7538,9 +7310,7 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
+      <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -7577,9 +7347,7 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -7616,9 +7384,7 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -7655,9 +7421,7 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -7694,9 +7458,7 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
+      <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -7733,9 +7495,7 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -7772,9 +7532,7 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
+      <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -7811,9 +7569,7 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -7850,9 +7606,7 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
+      <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -7889,9 +7643,7 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
+      <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -7928,9 +7680,7 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
+      <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -7967,9 +7717,7 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
+      <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -8006,9 +7754,7 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
+      <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -8045,9 +7791,7 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
+      <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -8084,9 +7828,7 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
+      <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -8123,9 +7865,7 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
+      <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -8162,9 +7902,7 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
+      <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -8201,9 +7939,7 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
+      <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -8240,9 +7976,7 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
+      <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -8279,9 +8013,7 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
+      <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -8318,9 +8050,7 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
+      <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -8357,9 +8087,7 @@
       <c r="AI38" s="1"/>
     </row>
     <row r="39" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
+      <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -8396,9 +8124,7 @@
       <c r="AI39" s="1"/>
     </row>
     <row r="40" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
+      <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -8435,9 +8161,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
+      <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -8474,9 +8198,7 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
+      <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -8513,9 +8235,7 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
+      <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -8552,9 +8272,7 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
+      <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -8591,9 +8309,7 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
+      <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -8630,9 +8346,7 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
+      <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -8669,9 +8383,7 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
+      <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -8708,9 +8420,7 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
+      <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -8747,9 +8457,7 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
+      <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -8786,9 +8494,7 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
+      <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -8825,9 +8531,7 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
+      <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -8864,9 +8568,7 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
+      <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -8903,9 +8605,7 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
+      <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -8942,9 +8642,7 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
+      <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -8981,9 +8679,7 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
+      <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -9020,9 +8716,7 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
+      <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -9059,9 +8753,7 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
+      <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -9098,9 +8790,7 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
+      <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -9137,9 +8827,7 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
+      <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -9176,9 +8864,7 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
+      <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -9215,9 +8901,7 @@
       <c r="AI60" s="1"/>
     </row>
     <row r="61" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
+      <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -9254,9 +8938,7 @@
       <c r="AI61" s="1"/>
     </row>
     <row r="62" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>61</v>
-      </c>
+      <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
@@ -9264,9 +8946,7 @@
       <c r="AB62" s="13"/>
     </row>
     <row r="63" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>62</v>
-      </c>
+      <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
@@ -9274,9 +8954,7 @@
       <c r="AB63" s="13"/>
     </row>
     <row r="64" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>63</v>
-      </c>
+      <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
@@ -9284,9 +8962,7 @@
       <c r="AB64" s="13"/>
     </row>
     <row r="65" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>64</v>
-      </c>
+      <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
@@ -9294,9 +8970,7 @@
       <c r="AB65" s="13"/>
     </row>
     <row r="66" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>65</v>
-      </c>
+      <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
@@ -9304,9 +8978,7 @@
       <c r="AB66" s="13"/>
     </row>
     <row r="67" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>66</v>
-      </c>
+      <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
@@ -9314,9 +8986,7 @@
       <c r="AB67" s="13"/>
     </row>
     <row r="68" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>67</v>
-      </c>
+      <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
@@ -9324,9 +8994,7 @@
       <c r="AB68" s="13"/>
     </row>
     <row r="69" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>68</v>
-      </c>
+      <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
@@ -9334,9 +9002,7 @@
       <c r="AB69" s="13"/>
     </row>
     <row r="70" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>69</v>
-      </c>
+      <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
@@ -9344,9 +9010,7 @@
       <c r="AB70" s="13"/>
     </row>
     <row r="71" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>70</v>
-      </c>
+      <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
@@ -9354,9 +9018,7 @@
       <c r="AB71" s="13"/>
     </row>
     <row r="72" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>71</v>
-      </c>
+      <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
@@ -9364,9 +9026,7 @@
       <c r="AB72" s="13"/>
     </row>
     <row r="73" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
-        <v>72</v>
-      </c>
+      <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
@@ -9374,9 +9034,7 @@
       <c r="AB73" s="13"/>
     </row>
     <row r="74" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>73</v>
-      </c>
+      <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
@@ -9384,9 +9042,7 @@
       <c r="AB74" s="13"/>
     </row>
     <row r="75" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
-        <v>74</v>
-      </c>
+      <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
@@ -9394,9 +9050,7 @@
       <c r="AB75" s="13"/>
     </row>
     <row r="76" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
-        <v>75</v>
-      </c>
+      <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
@@ -9404,9 +9058,7 @@
       <c r="AB76" s="13"/>
     </row>
     <row r="77" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>76</v>
-      </c>
+      <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
@@ -9414,9 +9066,7 @@
       <c r="AB77" s="13"/>
     </row>
     <row r="78" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>77</v>
-      </c>
+      <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
@@ -9424,9 +9074,7 @@
       <c r="AB78" s="13"/>
     </row>
     <row r="79" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>78</v>
-      </c>
+      <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
@@ -9434,9 +9082,7 @@
       <c r="AB79" s="13"/>
     </row>
     <row r="80" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>79</v>
-      </c>
+      <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
@@ -9444,9 +9090,7 @@
       <c r="AB80" s="13"/>
     </row>
     <row r="81" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>80</v>
-      </c>
+      <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
@@ -9454,9 +9098,7 @@
       <c r="AB81" s="13"/>
     </row>
     <row r="82" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
-        <v>81</v>
-      </c>
+      <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
@@ -9464,9 +9106,7 @@
       <c r="AB82" s="13"/>
     </row>
     <row r="83" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>82</v>
-      </c>
+      <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
@@ -9474,9 +9114,7 @@
       <c r="AB83" s="13"/>
     </row>
     <row r="84" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>83</v>
-      </c>
+      <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
@@ -9484,9 +9122,7 @@
       <c r="AB84" s="13"/>
     </row>
     <row r="85" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
-        <v>84</v>
-      </c>
+      <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
@@ -9494,9 +9130,7 @@
       <c r="AB85" s="13"/>
     </row>
     <row r="86" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
-        <v>85</v>
-      </c>
+      <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
@@ -9504,9 +9138,7 @@
       <c r="AB86" s="13"/>
     </row>
     <row r="87" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>86</v>
-      </c>
+      <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
@@ -9514,9 +9146,7 @@
       <c r="AB87" s="13"/>
     </row>
     <row r="88" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>87</v>
-      </c>
+      <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
@@ -9524,9 +9154,7 @@
       <c r="AB88" s="13"/>
     </row>
     <row r="89" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>88</v>
-      </c>
+      <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
@@ -9534,9 +9162,7 @@
       <c r="AB89" s="13"/>
     </row>
     <row r="90" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>89</v>
-      </c>
+      <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
@@ -9544,9 +9170,7 @@
       <c r="AB90" s="13"/>
     </row>
     <row r="91" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>90</v>
-      </c>
+      <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
@@ -9554,9 +9178,7 @@
       <c r="AB91" s="13"/>
     </row>
     <row r="92" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>91</v>
-      </c>
+      <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
@@ -9564,9 +9186,7 @@
       <c r="AB92" s="13"/>
     </row>
     <row r="93" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
-        <v>92</v>
-      </c>
+      <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
@@ -9574,9 +9194,7 @@
       <c r="AB93" s="13"/>
     </row>
     <row r="94" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
-        <v>93</v>
-      </c>
+      <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
@@ -9584,9 +9202,7 @@
       <c r="AB94" s="13"/>
     </row>
     <row r="95" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
-        <v>94</v>
-      </c>
+      <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
@@ -9594,9 +9210,7 @@
       <c r="AB95" s="13"/>
     </row>
     <row r="96" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
-        <v>95</v>
-      </c>
+      <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
@@ -9604,9 +9218,7 @@
       <c r="AB96" s="13"/>
     </row>
     <row r="97" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
-        <v>96</v>
-      </c>
+      <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
@@ -9614,9 +9226,7 @@
       <c r="AB97" s="13"/>
     </row>
     <row r="98" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
-        <v>97</v>
-      </c>
+      <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
@@ -9624,9 +9234,7 @@
       <c r="AB98" s="13"/>
     </row>
     <row r="99" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
-        <v>98</v>
-      </c>
+      <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
@@ -9634,9 +9242,7 @@
       <c r="AB99" s="13"/>
     </row>
     <row r="100" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
-        <v>99</v>
-      </c>
+      <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
@@ -9644,9 +9250,7 @@
       <c r="AB100" s="13"/>
     </row>
     <row r="101" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
-        <v>100</v>
-      </c>
+      <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
@@ -9655,8 +9259,12 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <hyperlinks>
+    <hyperlink ref="AF2" r:id="rId1"/>
+    <hyperlink ref="AF3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -9665,9 +9273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI101"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120:D121"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9814,9 +9420,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
+      <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9853,9 +9457,7 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -9892,9 +9494,7 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9931,9 +9531,7 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -9970,9 +9568,7 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -10009,9 +9605,7 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -10048,9 +9642,7 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -10087,9 +9679,7 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -10126,9 +9716,7 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -10165,9 +9753,7 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
+      <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -10204,9 +9790,7 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -10243,9 +9827,7 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
+      <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -10282,9 +9864,7 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
+      <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -10321,9 +9901,7 @@
       <c r="AI14" s="1"/>
     </row>
     <row r="15" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -10360,9 +9938,7 @@
       <c r="AI15" s="1"/>
     </row>
     <row r="16" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
+      <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -10399,9 +9975,7 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
+      <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -10438,9 +10012,7 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
+      <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -10477,9 +10049,7 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -10516,9 +10086,7 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -10555,9 +10123,7 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -10594,9 +10160,7 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
+      <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -10633,9 +10197,7 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -10672,9 +10234,7 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
+      <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -10711,9 +10271,7 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -10750,9 +10308,7 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
+      <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -10789,9 +10345,7 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
+      <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -10828,9 +10382,7 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
+      <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -10867,9 +10419,7 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
+      <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -10906,9 +10456,7 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
+      <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -10945,9 +10493,7 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
+      <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -10984,9 +10530,7 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
+      <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -11023,9 +10567,7 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
+      <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -11062,9 +10604,7 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
+      <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -11101,9 +10641,7 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
+      <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -11140,9 +10678,7 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
+      <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -11179,9 +10715,7 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
+      <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -11218,9 +10752,7 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
+      <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -11257,9 +10789,7 @@
       <c r="AI38" s="1"/>
     </row>
     <row r="39" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
+      <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -11296,9 +10826,7 @@
       <c r="AI39" s="1"/>
     </row>
     <row r="40" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
+      <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -11335,9 +10863,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
+      <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -11374,9 +10900,7 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
+      <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -11413,9 +10937,7 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
+      <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -11452,9 +10974,7 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
+      <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -11491,9 +11011,7 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
+      <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -11530,9 +11048,7 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
+      <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -11569,9 +11085,7 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
+      <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -11608,9 +11122,7 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
+      <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -11647,9 +11159,7 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
+      <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -11686,9 +11196,7 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
+      <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -11725,9 +11233,7 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
+      <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -11764,9 +11270,7 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
+      <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -11803,9 +11307,7 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
+      <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -11842,9 +11344,7 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
+      <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -11881,9 +11381,7 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
+      <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -11920,9 +11418,7 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
+      <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -11959,9 +11455,7 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
+      <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -11998,9 +11492,7 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
+      <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -12037,9 +11529,7 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
+      <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -12076,9 +11566,7 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
+      <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -12115,9 +11603,7 @@
       <c r="AI60" s="1"/>
     </row>
     <row r="61" spans="1:35" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
+      <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -12154,9 +11640,7 @@
       <c r="AI61" s="1"/>
     </row>
     <row r="62" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>61</v>
-      </c>
+      <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
@@ -12164,9 +11648,7 @@
       <c r="AB62" s="13"/>
     </row>
     <row r="63" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>62</v>
-      </c>
+      <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
@@ -12174,9 +11656,7 @@
       <c r="AB63" s="13"/>
     </row>
     <row r="64" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>63</v>
-      </c>
+      <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
@@ -12184,9 +11664,7 @@
       <c r="AB64" s="13"/>
     </row>
     <row r="65" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>64</v>
-      </c>
+      <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
@@ -12194,9 +11672,7 @@
       <c r="AB65" s="13"/>
     </row>
     <row r="66" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>65</v>
-      </c>
+      <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
@@ -12204,9 +11680,7 @@
       <c r="AB66" s="13"/>
     </row>
     <row r="67" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>66</v>
-      </c>
+      <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
@@ -12214,9 +11688,7 @@
       <c r="AB67" s="13"/>
     </row>
     <row r="68" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>67</v>
-      </c>
+      <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
@@ -12224,9 +11696,7 @@
       <c r="AB68" s="13"/>
     </row>
     <row r="69" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>68</v>
-      </c>
+      <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
@@ -12234,9 +11704,7 @@
       <c r="AB69" s="13"/>
     </row>
     <row r="70" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>69</v>
-      </c>
+      <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
@@ -12244,9 +11712,7 @@
       <c r="AB70" s="13"/>
     </row>
     <row r="71" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>70</v>
-      </c>
+      <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
@@ -12254,9 +11720,7 @@
       <c r="AB71" s="13"/>
     </row>
     <row r="72" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>71</v>
-      </c>
+      <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
@@ -12264,9 +11728,7 @@
       <c r="AB72" s="13"/>
     </row>
     <row r="73" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
-        <v>72</v>
-      </c>
+      <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
@@ -12274,9 +11736,7 @@
       <c r="AB73" s="13"/>
     </row>
     <row r="74" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>73</v>
-      </c>
+      <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
@@ -12284,9 +11744,7 @@
       <c r="AB74" s="13"/>
     </row>
     <row r="75" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
-        <v>74</v>
-      </c>
+      <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
@@ -12294,9 +11752,7 @@
       <c r="AB75" s="13"/>
     </row>
     <row r="76" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
-        <v>75</v>
-      </c>
+      <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
@@ -12304,9 +11760,7 @@
       <c r="AB76" s="13"/>
     </row>
     <row r="77" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>76</v>
-      </c>
+      <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
@@ -12314,9 +11768,7 @@
       <c r="AB77" s="13"/>
     </row>
     <row r="78" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>77</v>
-      </c>
+      <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
@@ -12324,9 +11776,7 @@
       <c r="AB78" s="13"/>
     </row>
     <row r="79" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>78</v>
-      </c>
+      <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
@@ -12334,9 +11784,7 @@
       <c r="AB79" s="13"/>
     </row>
     <row r="80" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>79</v>
-      </c>
+      <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
@@ -12344,9 +11792,7 @@
       <c r="AB80" s="13"/>
     </row>
     <row r="81" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>80</v>
-      </c>
+      <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
@@ -12354,9 +11800,7 @@
       <c r="AB81" s="13"/>
     </row>
     <row r="82" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
-        <v>81</v>
-      </c>
+      <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
@@ -12364,9 +11808,7 @@
       <c r="AB82" s="13"/>
     </row>
     <row r="83" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>82</v>
-      </c>
+      <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
@@ -12374,9 +11816,7 @@
       <c r="AB83" s="13"/>
     </row>
     <row r="84" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>83</v>
-      </c>
+      <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
@@ -12384,9 +11824,7 @@
       <c r="AB84" s="13"/>
     </row>
     <row r="85" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
-        <v>84</v>
-      </c>
+      <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
@@ -12394,9 +11832,7 @@
       <c r="AB85" s="13"/>
     </row>
     <row r="86" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
-        <v>85</v>
-      </c>
+      <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
@@ -12404,9 +11840,7 @@
       <c r="AB86" s="13"/>
     </row>
     <row r="87" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>86</v>
-      </c>
+      <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
@@ -12414,9 +11848,7 @@
       <c r="AB87" s="13"/>
     </row>
     <row r="88" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>87</v>
-      </c>
+      <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
@@ -12424,9 +11856,7 @@
       <c r="AB88" s="13"/>
     </row>
     <row r="89" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>88</v>
-      </c>
+      <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
@@ -12434,9 +11864,7 @@
       <c r="AB89" s="13"/>
     </row>
     <row r="90" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>89</v>
-      </c>
+      <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
@@ -12444,9 +11872,7 @@
       <c r="AB90" s="13"/>
     </row>
     <row r="91" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>90</v>
-      </c>
+      <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
@@ -12454,9 +11880,7 @@
       <c r="AB91" s="13"/>
     </row>
     <row r="92" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>91</v>
-      </c>
+      <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
@@ -12464,9 +11888,7 @@
       <c r="AB92" s="13"/>
     </row>
     <row r="93" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
-        <v>92</v>
-      </c>
+      <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
@@ -12474,9 +11896,7 @@
       <c r="AB93" s="13"/>
     </row>
     <row r="94" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
-        <v>93</v>
-      </c>
+      <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
@@ -12484,9 +11904,7 @@
       <c r="AB94" s="13"/>
     </row>
     <row r="95" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
-        <v>94</v>
-      </c>
+      <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
@@ -12494,9 +11912,7 @@
       <c r="AB95" s="13"/>
     </row>
     <row r="96" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
-        <v>95</v>
-      </c>
+      <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
@@ -12504,9 +11920,7 @@
       <c r="AB96" s="13"/>
     </row>
     <row r="97" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
-        <v>96</v>
-      </c>
+      <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
@@ -12514,9 +11928,7 @@
       <c r="AB97" s="13"/>
     </row>
     <row r="98" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
-        <v>97</v>
-      </c>
+      <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
@@ -12524,9 +11936,7 @@
       <c r="AB98" s="13"/>
     </row>
     <row r="99" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
-        <v>98</v>
-      </c>
+      <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
@@ -12534,9 +11944,7 @@
       <c r="AB99" s="13"/>
     </row>
     <row r="100" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
-        <v>99</v>
-      </c>
+      <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
@@ -12544,9 +11952,7 @@
       <c r="AB100" s="13"/>
     </row>
     <row r="101" spans="1:28" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
-        <v>100</v>
-      </c>
+      <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
@@ -12564,7 +11970,7 @@
   <dimension ref="A1:AI101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12712,9 +12118,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
+      <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -12751,9 +12155,7 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -12790,9 +12192,7 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -12829,9 +12229,7 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -12868,9 +12266,7 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12907,9 +12303,7 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -12946,9 +12340,7 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -12985,9 +12377,7 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -13024,9 +12414,7 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -13063,9 +12451,7 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
+      <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -13102,9 +12488,7 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -13141,9 +12525,7 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
+      <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -13180,9 +12562,7 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
+      <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -13219,9 +12599,7 @@
       <c r="AI14" s="1"/>
     </row>
     <row r="15" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -13258,9 +12636,7 @@
       <c r="AI15" s="1"/>
     </row>
     <row r="16" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
+      <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -13297,9 +12673,7 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
+      <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -13336,9 +12710,7 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
+      <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -13375,9 +12747,7 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -13414,9 +12784,7 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -13453,9 +12821,7 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -13492,9 +12858,7 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
+      <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -13531,9 +12895,7 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -13570,9 +12932,7 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
+      <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -13609,9 +12969,7 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -13648,9 +13006,7 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
+      <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -13687,9 +13043,7 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
+      <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -13726,9 +13080,7 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
+      <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -13765,9 +13117,7 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
+      <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -13804,9 +13154,7 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
+      <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -13843,9 +13191,7 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
+      <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -13882,9 +13228,7 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
+      <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -13921,9 +13265,7 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
+      <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -13960,9 +13302,7 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
+      <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -13999,9 +13339,7 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
+      <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -14038,9 +13376,7 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
+      <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -14077,9 +13413,7 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
+      <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -14116,9 +13450,7 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
+      <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -14155,9 +13487,7 @@
       <c r="AI38" s="1"/>
     </row>
     <row r="39" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
+      <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -14194,9 +13524,7 @@
       <c r="AI39" s="1"/>
     </row>
     <row r="40" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
+      <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -14233,9 +13561,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
+      <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -14272,9 +13598,7 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
+      <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -14311,9 +13635,7 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
+      <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -14350,9 +13672,7 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
+      <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -14389,9 +13709,7 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
+      <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -14428,9 +13746,7 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
+      <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -14467,9 +13783,7 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
+      <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -14506,9 +13820,7 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
+      <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -14545,9 +13857,7 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
+      <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -14584,9 +13894,7 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
+      <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -14623,9 +13931,7 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
+      <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -14662,9 +13968,7 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
+      <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -14701,9 +14005,7 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
+      <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -14740,9 +14042,7 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
+      <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -14779,9 +14079,7 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
+      <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -14818,9 +14116,7 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
+      <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -14857,9 +14153,7 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
+      <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -14896,9 +14190,7 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
+      <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -14935,9 +14227,7 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
+      <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -14974,9 +14264,7 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
+      <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -15013,9 +14301,7 @@
       <c r="AI60" s="1"/>
     </row>
     <row r="61" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
+      <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -15052,9 +14338,7 @@
       <c r="AI61" s="1"/>
     </row>
     <row r="62" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>61</v>
-      </c>
+      <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
@@ -15062,9 +14346,7 @@
       <c r="AB62" s="13"/>
     </row>
     <row r="63" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>62</v>
-      </c>
+      <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
@@ -15072,9 +14354,7 @@
       <c r="AB63" s="13"/>
     </row>
     <row r="64" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>63</v>
-      </c>
+      <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
@@ -15082,9 +14362,7 @@
       <c r="AB64" s="13"/>
     </row>
     <row r="65" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>64</v>
-      </c>
+      <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
@@ -15092,9 +14370,7 @@
       <c r="AB65" s="13"/>
     </row>
     <row r="66" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>65</v>
-      </c>
+      <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
@@ -15102,9 +14378,7 @@
       <c r="AB66" s="13"/>
     </row>
     <row r="67" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>66</v>
-      </c>
+      <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
@@ -15112,9 +14386,7 @@
       <c r="AB67" s="13"/>
     </row>
     <row r="68" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>67</v>
-      </c>
+      <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
@@ -15122,9 +14394,7 @@
       <c r="AB68" s="13"/>
     </row>
     <row r="69" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>68</v>
-      </c>
+      <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
@@ -15132,9 +14402,7 @@
       <c r="AB69" s="13"/>
     </row>
     <row r="70" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>69</v>
-      </c>
+      <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
@@ -15142,9 +14410,7 @@
       <c r="AB70" s="13"/>
     </row>
     <row r="71" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>70</v>
-      </c>
+      <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
@@ -15152,9 +14418,7 @@
       <c r="AB71" s="13"/>
     </row>
     <row r="72" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>71</v>
-      </c>
+      <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
@@ -15162,9 +14426,7 @@
       <c r="AB72" s="13"/>
     </row>
     <row r="73" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
-        <v>72</v>
-      </c>
+      <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
@@ -15172,9 +14434,7 @@
       <c r="AB73" s="13"/>
     </row>
     <row r="74" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>73</v>
-      </c>
+      <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
@@ -15182,9 +14442,7 @@
       <c r="AB74" s="13"/>
     </row>
     <row r="75" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
-        <v>74</v>
-      </c>
+      <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
@@ -15192,9 +14450,7 @@
       <c r="AB75" s="13"/>
     </row>
     <row r="76" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
-        <v>75</v>
-      </c>
+      <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
@@ -15202,9 +14458,7 @@
       <c r="AB76" s="13"/>
     </row>
     <row r="77" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>76</v>
-      </c>
+      <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
@@ -15212,9 +14466,7 @@
       <c r="AB77" s="13"/>
     </row>
     <row r="78" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>77</v>
-      </c>
+      <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
@@ -15222,9 +14474,7 @@
       <c r="AB78" s="13"/>
     </row>
     <row r="79" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>78</v>
-      </c>
+      <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
@@ -15232,9 +14482,7 @@
       <c r="AB79" s="13"/>
     </row>
     <row r="80" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>79</v>
-      </c>
+      <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
@@ -15242,9 +14490,7 @@
       <c r="AB80" s="13"/>
     </row>
     <row r="81" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>80</v>
-      </c>
+      <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
@@ -15252,9 +14498,7 @@
       <c r="AB81" s="13"/>
     </row>
     <row r="82" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
-        <v>81</v>
-      </c>
+      <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
@@ -15262,9 +14506,7 @@
       <c r="AB82" s="13"/>
     </row>
     <row r="83" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>82</v>
-      </c>
+      <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
@@ -15272,9 +14514,7 @@
       <c r="AB83" s="13"/>
     </row>
     <row r="84" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>83</v>
-      </c>
+      <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
@@ -15282,9 +14522,7 @@
       <c r="AB84" s="13"/>
     </row>
     <row r="85" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
-        <v>84</v>
-      </c>
+      <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
@@ -15292,9 +14530,7 @@
       <c r="AB85" s="13"/>
     </row>
     <row r="86" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
-        <v>85</v>
-      </c>
+      <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
@@ -15302,9 +14538,7 @@
       <c r="AB86" s="13"/>
     </row>
     <row r="87" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>86</v>
-      </c>
+      <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
@@ -15312,9 +14546,7 @@
       <c r="AB87" s="13"/>
     </row>
     <row r="88" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>87</v>
-      </c>
+      <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
@@ -15322,9 +14554,7 @@
       <c r="AB88" s="13"/>
     </row>
     <row r="89" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>88</v>
-      </c>
+      <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
@@ -15332,9 +14562,7 @@
       <c r="AB89" s="13"/>
     </row>
     <row r="90" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>89</v>
-      </c>
+      <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
@@ -15342,9 +14570,7 @@
       <c r="AB90" s="13"/>
     </row>
     <row r="91" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>90</v>
-      </c>
+      <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
@@ -15352,9 +14578,7 @@
       <c r="AB91" s="13"/>
     </row>
     <row r="92" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>91</v>
-      </c>
+      <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
@@ -15362,9 +14586,7 @@
       <c r="AB92" s="13"/>
     </row>
     <row r="93" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
-        <v>92</v>
-      </c>
+      <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
@@ -15372,9 +14594,7 @@
       <c r="AB93" s="13"/>
     </row>
     <row r="94" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
-        <v>93</v>
-      </c>
+      <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
@@ -15382,9 +14602,7 @@
       <c r="AB94" s="13"/>
     </row>
     <row r="95" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
-        <v>94</v>
-      </c>
+      <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
@@ -15392,9 +14610,7 @@
       <c r="AB95" s="13"/>
     </row>
     <row r="96" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
-        <v>95</v>
-      </c>
+      <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
@@ -15402,9 +14618,7 @@
       <c r="AB96" s="13"/>
     </row>
     <row r="97" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
-        <v>96</v>
-      </c>
+      <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
@@ -15412,9 +14626,7 @@
       <c r="AB97" s="13"/>
     </row>
     <row r="98" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
-        <v>97</v>
-      </c>
+      <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
@@ -15422,9 +14634,7 @@
       <c r="AB98" s="13"/>
     </row>
     <row r="99" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
-        <v>98</v>
-      </c>
+      <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
@@ -15432,9 +14642,7 @@
       <c r="AB99" s="13"/>
     </row>
     <row r="100" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
-        <v>99</v>
-      </c>
+      <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
@@ -15442,9 +14650,7 @@
       <c r="AB100" s="13"/>
     </row>
     <row r="101" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
-        <v>100</v>
-      </c>
+      <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
@@ -15472,8 +14678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI101"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A38" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15621,9 +14827,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
+      <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -15660,9 +14864,7 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -15699,9 +14901,7 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -15738,9 +14938,7 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -15777,9 +14975,7 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -15816,9 +15012,7 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -15855,9 +15049,7 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -15894,9 +15086,7 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -15933,9 +15123,7 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -15972,9 +15160,7 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
+      <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -16011,9 +15197,7 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -16050,9 +15234,7 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
+      <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -16089,9 +15271,7 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
+      <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -16128,9 +15308,7 @@
       <c r="AI14" s="1"/>
     </row>
     <row r="15" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -16167,9 +15345,7 @@
       <c r="AI15" s="1"/>
     </row>
     <row r="16" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
+      <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -16206,9 +15382,7 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
+      <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -16245,9 +15419,7 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
+      <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -16284,9 +15456,7 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -16323,9 +15493,7 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -16362,9 +15530,7 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -16401,9 +15567,7 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
+      <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -16440,9 +15604,7 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -16479,9 +15641,7 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
+      <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -16518,9 +15678,7 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -16557,9 +15715,7 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
+      <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -16596,9 +15752,7 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
+      <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -16635,9 +15789,7 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
+      <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -16674,9 +15826,7 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
+      <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -16713,9 +15863,7 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
+      <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -16752,9 +15900,7 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
+      <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -16791,9 +15937,7 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
+      <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -16830,9 +15974,7 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
+      <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -16869,9 +16011,7 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
+      <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -16908,9 +16048,7 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
+      <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -16947,9 +16085,7 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
+      <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -16986,9 +16122,7 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
+      <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -17025,9 +16159,7 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
+      <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -17064,9 +16196,7 @@
       <c r="AI38" s="1"/>
     </row>
     <row r="39" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
+      <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -17103,9 +16233,7 @@
       <c r="AI39" s="1"/>
     </row>
     <row r="40" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
+      <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -17142,9 +16270,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
+      <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -17181,9 +16307,7 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
+      <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -17220,9 +16344,7 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
+      <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -17259,9 +16381,7 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
+      <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -17298,9 +16418,7 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
+      <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -17337,9 +16455,7 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
+      <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -17376,9 +16492,7 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
+      <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -17415,9 +16529,7 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
+      <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -17454,9 +16566,7 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
+      <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -17493,9 +16603,7 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
+      <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -17532,9 +16640,7 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
+      <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -17571,9 +16677,7 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
+      <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -17610,9 +16714,7 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
+      <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -17649,9 +16751,7 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
+      <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -17688,9 +16788,7 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
+      <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -17727,9 +16825,7 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
+      <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -17766,9 +16862,7 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
+      <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -17805,9 +16899,7 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
+      <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -17844,9 +16936,7 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
+      <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -17883,9 +16973,7 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
+      <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -17922,9 +17010,7 @@
       <c r="AI60" s="1"/>
     </row>
     <row r="61" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
+      <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -17961,9 +17047,7 @@
       <c r="AI61" s="1"/>
     </row>
     <row r="62" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>61</v>
-      </c>
+      <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
@@ -17971,9 +17055,7 @@
       <c r="AB62" s="13"/>
     </row>
     <row r="63" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>62</v>
-      </c>
+      <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
@@ -17981,9 +17063,7 @@
       <c r="AB63" s="13"/>
     </row>
     <row r="64" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>63</v>
-      </c>
+      <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
@@ -17991,9 +17071,7 @@
       <c r="AB64" s="13"/>
     </row>
     <row r="65" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>64</v>
-      </c>
+      <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
@@ -18001,9 +17079,7 @@
       <c r="AB65" s="13"/>
     </row>
     <row r="66" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>65</v>
-      </c>
+      <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
@@ -18011,9 +17087,7 @@
       <c r="AB66" s="13"/>
     </row>
     <row r="67" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>66</v>
-      </c>
+      <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
@@ -18021,9 +17095,7 @@
       <c r="AB67" s="13"/>
     </row>
     <row r="68" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>67</v>
-      </c>
+      <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
@@ -18031,9 +17103,7 @@
       <c r="AB68" s="13"/>
     </row>
     <row r="69" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>68</v>
-      </c>
+      <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
@@ -18041,9 +17111,7 @@
       <c r="AB69" s="13"/>
     </row>
     <row r="70" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>69</v>
-      </c>
+      <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
@@ -18051,9 +17119,7 @@
       <c r="AB70" s="13"/>
     </row>
     <row r="71" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>70</v>
-      </c>
+      <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
@@ -18061,9 +17127,7 @@
       <c r="AB71" s="13"/>
     </row>
     <row r="72" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>71</v>
-      </c>
+      <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
@@ -18071,9 +17135,7 @@
       <c r="AB72" s="13"/>
     </row>
     <row r="73" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
-        <v>72</v>
-      </c>
+      <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
@@ -18081,9 +17143,7 @@
       <c r="AB73" s="13"/>
     </row>
     <row r="74" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>73</v>
-      </c>
+      <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
@@ -18091,9 +17151,7 @@
       <c r="AB74" s="13"/>
     </row>
     <row r="75" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
-        <v>74</v>
-      </c>
+      <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
@@ -18101,9 +17159,7 @@
       <c r="AB75" s="13"/>
     </row>
     <row r="76" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
-        <v>75</v>
-      </c>
+      <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
@@ -18111,9 +17167,7 @@
       <c r="AB76" s="13"/>
     </row>
     <row r="77" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>76</v>
-      </c>
+      <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
@@ -18121,9 +17175,7 @@
       <c r="AB77" s="13"/>
     </row>
     <row r="78" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>77</v>
-      </c>
+      <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
@@ -18131,9 +17183,7 @@
       <c r="AB78" s="13"/>
     </row>
     <row r="79" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>78</v>
-      </c>
+      <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
@@ -18141,9 +17191,7 @@
       <c r="AB79" s="13"/>
     </row>
     <row r="80" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>79</v>
-      </c>
+      <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
@@ -18151,9 +17199,7 @@
       <c r="AB80" s="13"/>
     </row>
     <row r="81" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>80</v>
-      </c>
+      <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
@@ -18161,9 +17207,7 @@
       <c r="AB81" s="13"/>
     </row>
     <row r="82" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
-        <v>81</v>
-      </c>
+      <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
@@ -18171,9 +17215,7 @@
       <c r="AB82" s="13"/>
     </row>
     <row r="83" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>82</v>
-      </c>
+      <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
@@ -18181,9 +17223,7 @@
       <c r="AB83" s="13"/>
     </row>
     <row r="84" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>83</v>
-      </c>
+      <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
@@ -18191,9 +17231,7 @@
       <c r="AB84" s="13"/>
     </row>
     <row r="85" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
-        <v>84</v>
-      </c>
+      <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
@@ -18201,9 +17239,7 @@
       <c r="AB85" s="13"/>
     </row>
     <row r="86" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
-        <v>85</v>
-      </c>
+      <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
@@ -18211,9 +17247,7 @@
       <c r="AB86" s="13"/>
     </row>
     <row r="87" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>86</v>
-      </c>
+      <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
@@ -18221,9 +17255,7 @@
       <c r="AB87" s="13"/>
     </row>
     <row r="88" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>87</v>
-      </c>
+      <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
@@ -18231,9 +17263,7 @@
       <c r="AB88" s="13"/>
     </row>
     <row r="89" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>88</v>
-      </c>
+      <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
@@ -18241,9 +17271,7 @@
       <c r="AB89" s="13"/>
     </row>
     <row r="90" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>89</v>
-      </c>
+      <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
@@ -18251,9 +17279,7 @@
       <c r="AB90" s="13"/>
     </row>
     <row r="91" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>90</v>
-      </c>
+      <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
@@ -18261,9 +17287,7 @@
       <c r="AB91" s="13"/>
     </row>
     <row r="92" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>91</v>
-      </c>
+      <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
@@ -18271,9 +17295,7 @@
       <c r="AB92" s="13"/>
     </row>
     <row r="93" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
-        <v>92</v>
-      </c>
+      <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
@@ -18281,9 +17303,7 @@
       <c r="AB93" s="13"/>
     </row>
     <row r="94" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
-        <v>93</v>
-      </c>
+      <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
@@ -18291,9 +17311,7 @@
       <c r="AB94" s="13"/>
     </row>
     <row r="95" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
-        <v>94</v>
-      </c>
+      <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
@@ -18301,9 +17319,7 @@
       <c r="AB95" s="13"/>
     </row>
     <row r="96" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
-        <v>95</v>
-      </c>
+      <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
@@ -18311,9 +17327,7 @@
       <c r="AB96" s="13"/>
     </row>
     <row r="97" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
-        <v>96</v>
-      </c>
+      <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
@@ -18321,9 +17335,7 @@
       <c r="AB97" s="13"/>
     </row>
     <row r="98" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
-        <v>97</v>
-      </c>
+      <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
@@ -18331,9 +17343,7 @@
       <c r="AB98" s="13"/>
     </row>
     <row r="99" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
-        <v>98</v>
-      </c>
+      <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
@@ -18341,9 +17351,7 @@
       <c r="AB99" s="13"/>
     </row>
     <row r="100" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
-        <v>99</v>
-      </c>
+      <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
@@ -18351,9 +17359,7 @@
       <c r="AB100" s="13"/>
     </row>
     <row r="101" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
-        <v>100</v>
-      </c>
+      <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
@@ -18371,7 +17377,7 @@
   <dimension ref="A1:AI101"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18519,9 +17525,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
+      <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -18558,9 +17562,7 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -18597,9 +17599,7 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -18636,9 +17636,7 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -18675,9 +17673,7 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -18714,9 +17710,7 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -18753,9 +17747,7 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -18792,9 +17784,7 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -18831,9 +17821,7 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -18870,9 +17858,7 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
+      <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -18909,9 +17895,7 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -18948,9 +17932,7 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
+      <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -18987,9 +17969,7 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
+      <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -19026,9 +18006,7 @@
       <c r="AI14" s="1"/>
     </row>
     <row r="15" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -19065,9 +18043,7 @@
       <c r="AI15" s="1"/>
     </row>
     <row r="16" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
+      <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -19104,9 +18080,7 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
+      <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -19143,9 +18117,7 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
+      <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -19182,9 +18154,7 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -19221,9 +18191,7 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -19260,9 +18228,7 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -19299,9 +18265,7 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
+      <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -19338,9 +18302,7 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -19377,9 +18339,7 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
+      <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -19416,9 +18376,7 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -19455,9 +18413,7 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
+      <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -19494,9 +18450,7 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
+      <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -19533,9 +18487,7 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
+      <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -19572,9 +18524,7 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
+      <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -19611,9 +18561,7 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
+      <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -19650,9 +18598,7 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
+      <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -19689,9 +18635,7 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
+      <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -19728,9 +18672,7 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
+      <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -19767,9 +18709,7 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
+      <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -19806,9 +18746,7 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
+      <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -19845,9 +18783,7 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
+      <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -19884,9 +18820,7 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
+      <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -19923,9 +18857,7 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
+      <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -19962,9 +18894,7 @@
       <c r="AI38" s="1"/>
     </row>
     <row r="39" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
+      <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -20001,9 +18931,7 @@
       <c r="AI39" s="1"/>
     </row>
     <row r="40" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
+      <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -20040,9 +18968,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
+      <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -20079,9 +19005,7 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
+      <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -20118,9 +19042,7 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
+      <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -20157,9 +19079,7 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
+      <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -20196,9 +19116,7 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
+      <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -20235,9 +19153,7 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
+      <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -20274,9 +19190,7 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
+      <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -20313,9 +19227,7 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
+      <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -20352,9 +19264,7 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
+      <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -20391,9 +19301,7 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
+      <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -20430,9 +19338,7 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
+      <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -20469,9 +19375,7 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
+      <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -20508,9 +19412,7 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
+      <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -20547,9 +19449,7 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
+      <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -20586,9 +19486,7 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
+      <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -20625,9 +19523,7 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
+      <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -20664,9 +19560,7 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
+      <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -20703,9 +19597,7 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
+      <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -20742,9 +19634,7 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
+      <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -20781,9 +19671,7 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
+      <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -20820,9 +19708,7 @@
       <c r="AI60" s="1"/>
     </row>
     <row r="61" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
+      <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -20859,9 +19745,7 @@
       <c r="AI61" s="1"/>
     </row>
     <row r="62" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>61</v>
-      </c>
+      <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
@@ -20869,9 +19753,7 @@
       <c r="AB62" s="13"/>
     </row>
     <row r="63" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>62</v>
-      </c>
+      <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
@@ -20879,9 +19761,7 @@
       <c r="AB63" s="13"/>
     </row>
     <row r="64" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>63</v>
-      </c>
+      <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
@@ -20889,9 +19769,7 @@
       <c r="AB64" s="13"/>
     </row>
     <row r="65" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>64</v>
-      </c>
+      <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
@@ -20899,9 +19777,7 @@
       <c r="AB65" s="13"/>
     </row>
     <row r="66" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>65</v>
-      </c>
+      <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
@@ -20909,9 +19785,7 @@
       <c r="AB66" s="13"/>
     </row>
     <row r="67" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>66</v>
-      </c>
+      <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
@@ -20919,9 +19793,7 @@
       <c r="AB67" s="13"/>
     </row>
     <row r="68" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>67</v>
-      </c>
+      <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
@@ -20929,9 +19801,7 @@
       <c r="AB68" s="13"/>
     </row>
     <row r="69" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>68</v>
-      </c>
+      <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
@@ -20939,9 +19809,7 @@
       <c r="AB69" s="13"/>
     </row>
     <row r="70" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>69</v>
-      </c>
+      <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
@@ -20949,9 +19817,7 @@
       <c r="AB70" s="13"/>
     </row>
     <row r="71" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>70</v>
-      </c>
+      <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
@@ -20959,9 +19825,7 @@
       <c r="AB71" s="13"/>
     </row>
     <row r="72" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>71</v>
-      </c>
+      <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
@@ -20969,9 +19833,7 @@
       <c r="AB72" s="13"/>
     </row>
     <row r="73" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
-        <v>72</v>
-      </c>
+      <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
@@ -20979,9 +19841,7 @@
       <c r="AB73" s="13"/>
     </row>
     <row r="74" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>73</v>
-      </c>
+      <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
@@ -20989,9 +19849,7 @@
       <c r="AB74" s="13"/>
     </row>
     <row r="75" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
-        <v>74</v>
-      </c>
+      <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
@@ -20999,9 +19857,7 @@
       <c r="AB75" s="13"/>
     </row>
     <row r="76" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
-        <v>75</v>
-      </c>
+      <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
@@ -21009,9 +19865,7 @@
       <c r="AB76" s="13"/>
     </row>
     <row r="77" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>76</v>
-      </c>
+      <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
@@ -21019,9 +19873,7 @@
       <c r="AB77" s="13"/>
     </row>
     <row r="78" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>77</v>
-      </c>
+      <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
@@ -21029,9 +19881,7 @@
       <c r="AB78" s="13"/>
     </row>
     <row r="79" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>78</v>
-      </c>
+      <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
@@ -21039,9 +19889,7 @@
       <c r="AB79" s="13"/>
     </row>
     <row r="80" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>79</v>
-      </c>
+      <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
@@ -21049,9 +19897,7 @@
       <c r="AB80" s="13"/>
     </row>
     <row r="81" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>80</v>
-      </c>
+      <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
@@ -21059,9 +19905,7 @@
       <c r="AB81" s="13"/>
     </row>
     <row r="82" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
-        <v>81</v>
-      </c>
+      <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
@@ -21069,9 +19913,7 @@
       <c r="AB82" s="13"/>
     </row>
     <row r="83" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>82</v>
-      </c>
+      <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
@@ -21079,9 +19921,7 @@
       <c r="AB83" s="13"/>
     </row>
     <row r="84" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>83</v>
-      </c>
+      <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
@@ -21089,9 +19929,7 @@
       <c r="AB84" s="13"/>
     </row>
     <row r="85" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
-        <v>84</v>
-      </c>
+      <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
@@ -21099,9 +19937,7 @@
       <c r="AB85" s="13"/>
     </row>
     <row r="86" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
-        <v>85</v>
-      </c>
+      <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
@@ -21109,9 +19945,7 @@
       <c r="AB86" s="13"/>
     </row>
     <row r="87" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>86</v>
-      </c>
+      <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
@@ -21119,9 +19953,7 @@
       <c r="AB87" s="13"/>
     </row>
     <row r="88" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>87</v>
-      </c>
+      <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
@@ -21129,9 +19961,7 @@
       <c r="AB88" s="13"/>
     </row>
     <row r="89" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>88</v>
-      </c>
+      <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
@@ -21139,9 +19969,7 @@
       <c r="AB89" s="13"/>
     </row>
     <row r="90" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>89</v>
-      </c>
+      <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
@@ -21149,9 +19977,7 @@
       <c r="AB90" s="13"/>
     </row>
     <row r="91" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>90</v>
-      </c>
+      <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
@@ -21159,9 +19985,7 @@
       <c r="AB91" s="13"/>
     </row>
     <row r="92" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>91</v>
-      </c>
+      <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
@@ -21169,9 +19993,7 @@
       <c r="AB92" s="13"/>
     </row>
     <row r="93" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
-        <v>92</v>
-      </c>
+      <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
@@ -21179,9 +20001,7 @@
       <c r="AB93" s="13"/>
     </row>
     <row r="94" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
-        <v>93</v>
-      </c>
+      <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
@@ -21189,9 +20009,7 @@
       <c r="AB94" s="13"/>
     </row>
     <row r="95" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
-        <v>94</v>
-      </c>
+      <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
@@ -21199,9 +20017,7 @@
       <c r="AB95" s="13"/>
     </row>
     <row r="96" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
-        <v>95</v>
-      </c>
+      <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
@@ -21209,9 +20025,7 @@
       <c r="AB96" s="13"/>
     </row>
     <row r="97" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
-        <v>96</v>
-      </c>
+      <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
@@ -21219,9 +20033,7 @@
       <c r="AB97" s="13"/>
     </row>
     <row r="98" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
-        <v>97</v>
-      </c>
+      <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
@@ -21229,9 +20041,7 @@
       <c r="AB98" s="13"/>
     </row>
     <row r="99" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
-        <v>98</v>
-      </c>
+      <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
@@ -21239,9 +20049,7 @@
       <c r="AB99" s="13"/>
     </row>
     <row r="100" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
-        <v>99</v>
-      </c>
+      <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
@@ -21249,9 +20057,7 @@
       <c r="AB100" s="13"/>
     </row>
     <row r="101" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
-        <v>100</v>
-      </c>
+      <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
@@ -21271,7 +20077,7 @@
   <dimension ref="A1:AI101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21419,9 +20225,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
+      <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -21458,9 +20262,7 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -21497,9 +20299,7 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -21536,9 +20336,7 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -21575,9 +20373,7 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -21614,9 +20410,7 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -21653,9 +20447,7 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -21692,9 +20484,7 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -21731,9 +20521,7 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -21770,9 +20558,7 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
+      <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -21809,9 +20595,7 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -21848,9 +20632,7 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
+      <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -21887,9 +20669,7 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
+      <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -21926,9 +20706,7 @@
       <c r="AI14" s="1"/>
     </row>
     <row r="15" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -21965,9 +20743,7 @@
       <c r="AI15" s="1"/>
     </row>
     <row r="16" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
+      <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -22004,9 +20780,7 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
+      <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -22043,9 +20817,7 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
+      <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -22082,9 +20854,7 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -22121,9 +20891,7 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -22160,9 +20928,7 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -22199,9 +20965,7 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
+      <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -22238,9 +21002,7 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -22277,9 +21039,7 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
+      <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -22316,9 +21076,7 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -22355,9 +21113,7 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
+      <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -22394,9 +21150,7 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
+      <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -22433,9 +21187,7 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
+      <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -22472,9 +21224,7 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
+      <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -22511,9 +21261,7 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
+      <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -22550,9 +21298,7 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
+      <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -22589,9 +21335,7 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
+      <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -22628,9 +21372,7 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
+      <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -22667,9 +21409,7 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
+      <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -22706,9 +21446,7 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
+      <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -22745,9 +21483,7 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
+      <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -22784,9 +21520,7 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
+      <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -22823,9 +21557,7 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
+      <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -22862,9 +21594,7 @@
       <c r="AI38" s="1"/>
     </row>
     <row r="39" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
+      <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -22901,9 +21631,7 @@
       <c r="AI39" s="1"/>
     </row>
     <row r="40" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
+      <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -22940,9 +21668,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
+      <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -22979,9 +21705,7 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
+      <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -23018,9 +21742,7 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
+      <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -23057,9 +21779,7 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
+      <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -23096,9 +21816,7 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
+      <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -23135,9 +21853,7 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
+      <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -23174,9 +21890,7 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
+      <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -23213,9 +21927,7 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
+      <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -23252,9 +21964,7 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
+      <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -23291,9 +22001,7 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
+      <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -23330,9 +22038,7 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
+      <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -23369,9 +22075,7 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
+      <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -23408,9 +22112,7 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
+      <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -23447,9 +22149,7 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
+      <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -23486,9 +22186,7 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
+      <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -23525,9 +22223,7 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
+      <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -23564,9 +22260,7 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
+      <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -23603,9 +22297,7 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
+      <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -23642,9 +22334,7 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
+      <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -23681,9 +22371,7 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
+      <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -23720,9 +22408,7 @@
       <c r="AI60" s="1"/>
     </row>
     <row r="61" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
+      <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -23759,9 +22445,7 @@
       <c r="AI61" s="1"/>
     </row>
     <row r="62" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>61</v>
-      </c>
+      <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
@@ -23769,9 +22453,7 @@
       <c r="AB62" s="13"/>
     </row>
     <row r="63" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>62</v>
-      </c>
+      <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
@@ -23779,9 +22461,7 @@
       <c r="AB63" s="13"/>
     </row>
     <row r="64" spans="1:35" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>63</v>
-      </c>
+      <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
@@ -23789,9 +22469,7 @@
       <c r="AB64" s="13"/>
     </row>
     <row r="65" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>64</v>
-      </c>
+      <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
@@ -23799,9 +22477,7 @@
       <c r="AB65" s="13"/>
     </row>
     <row r="66" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>65</v>
-      </c>
+      <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
@@ -23809,9 +22485,7 @@
       <c r="AB66" s="13"/>
     </row>
     <row r="67" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>66</v>
-      </c>
+      <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
@@ -23819,9 +22493,7 @@
       <c r="AB67" s="13"/>
     </row>
     <row r="68" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>67</v>
-      </c>
+      <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
@@ -23829,9 +22501,7 @@
       <c r="AB68" s="13"/>
     </row>
     <row r="69" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>68</v>
-      </c>
+      <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
@@ -23839,9 +22509,7 @@
       <c r="AB69" s="13"/>
     </row>
     <row r="70" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>69</v>
-      </c>
+      <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
@@ -23849,9 +22517,7 @@
       <c r="AB70" s="13"/>
     </row>
     <row r="71" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>70</v>
-      </c>
+      <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
@@ -23859,9 +22525,7 @@
       <c r="AB71" s="13"/>
     </row>
     <row r="72" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>71</v>
-      </c>
+      <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
@@ -23869,9 +22533,7 @@
       <c r="AB72" s="13"/>
     </row>
     <row r="73" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
-        <v>72</v>
-      </c>
+      <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
@@ -23879,9 +22541,7 @@
       <c r="AB73" s="13"/>
     </row>
     <row r="74" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>73</v>
-      </c>
+      <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
@@ -23889,9 +22549,7 @@
       <c r="AB74" s="13"/>
     </row>
     <row r="75" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
-        <v>74</v>
-      </c>
+      <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
@@ -23899,9 +22557,7 @@
       <c r="AB75" s="13"/>
     </row>
     <row r="76" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
-        <v>75</v>
-      </c>
+      <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
@@ -23909,9 +22565,7 @@
       <c r="AB76" s="13"/>
     </row>
     <row r="77" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>76</v>
-      </c>
+      <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
@@ -23919,9 +22573,7 @@
       <c r="AB77" s="13"/>
     </row>
     <row r="78" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>77</v>
-      </c>
+      <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
@@ -23929,9 +22581,7 @@
       <c r="AB78" s="13"/>
     </row>
     <row r="79" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>78</v>
-      </c>
+      <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
@@ -23939,9 +22589,7 @@
       <c r="AB79" s="13"/>
     </row>
     <row r="80" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>79</v>
-      </c>
+      <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
@@ -23949,9 +22597,7 @@
       <c r="AB80" s="13"/>
     </row>
     <row r="81" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>80</v>
-      </c>
+      <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
@@ -23959,9 +22605,7 @@
       <c r="AB81" s="13"/>
     </row>
     <row r="82" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
-        <v>81</v>
-      </c>
+      <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
@@ -23969,9 +22613,7 @@
       <c r="AB82" s="13"/>
     </row>
     <row r="83" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>82</v>
-      </c>
+      <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
@@ -23979,9 +22621,7 @@
       <c r="AB83" s="13"/>
     </row>
     <row r="84" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>83</v>
-      </c>
+      <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
@@ -23989,9 +22629,7 @@
       <c r="AB84" s="13"/>
     </row>
     <row r="85" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
-        <v>84</v>
-      </c>
+      <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
@@ -23999,9 +22637,7 @@
       <c r="AB85" s="13"/>
     </row>
     <row r="86" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
-        <v>85</v>
-      </c>
+      <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
@@ -24009,9 +22645,7 @@
       <c r="AB86" s="13"/>
     </row>
     <row r="87" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>86</v>
-      </c>
+      <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
@@ -24019,9 +22653,7 @@
       <c r="AB87" s="13"/>
     </row>
     <row r="88" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>87</v>
-      </c>
+      <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
@@ -24029,9 +22661,7 @@
       <c r="AB88" s="13"/>
     </row>
     <row r="89" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>88</v>
-      </c>
+      <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
@@ -24039,9 +22669,7 @@
       <c r="AB89" s="13"/>
     </row>
     <row r="90" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>89</v>
-      </c>
+      <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
@@ -24049,9 +22677,7 @@
       <c r="AB90" s="13"/>
     </row>
     <row r="91" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>90</v>
-      </c>
+      <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
@@ -24059,9 +22685,7 @@
       <c r="AB91" s="13"/>
     </row>
     <row r="92" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>91</v>
-      </c>
+      <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
@@ -24069,9 +22693,7 @@
       <c r="AB92" s="13"/>
     </row>
     <row r="93" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
-        <v>92</v>
-      </c>
+      <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
@@ -24079,9 +22701,7 @@
       <c r="AB93" s="13"/>
     </row>
     <row r="94" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
-        <v>93</v>
-      </c>
+      <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
@@ -24089,9 +22709,7 @@
       <c r="AB94" s="13"/>
     </row>
     <row r="95" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
-        <v>94</v>
-      </c>
+      <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
@@ -24099,9 +22717,7 @@
       <c r="AB95" s="13"/>
     </row>
     <row r="96" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
-        <v>95</v>
-      </c>
+      <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
@@ -24109,9 +22725,7 @@
       <c r="AB96" s="13"/>
     </row>
     <row r="97" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
-        <v>96</v>
-      </c>
+      <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
@@ -24119,9 +22733,7 @@
       <c r="AB97" s="13"/>
     </row>
     <row r="98" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
-        <v>97</v>
-      </c>
+      <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
@@ -24129,9 +22741,7 @@
       <c r="AB98" s="13"/>
     </row>
     <row r="99" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
-        <v>98</v>
-      </c>
+      <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
@@ -24139,9 +22749,7 @@
       <c r="AB99" s="13"/>
     </row>
     <row r="100" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
-        <v>99</v>
-      </c>
+      <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
@@ -24149,9 +22757,7 @@
       <c r="AB100" s="13"/>
     </row>
     <row r="101" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
-        <v>100</v>
-      </c>
+      <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
